--- a/Luban/Config/Datas/Client/Start.xlsx
+++ b/Luban/Config/Datas/Client/Start.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\GameFramework_Devil\Luban\Config\Datas\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C45479-836A-454C-B023-D5B42AF91880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF950FD2-6BE8-4C29-BF05-604B650A4547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2340" windowWidth="28800" windowHeight="11085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3120" windowWidth="28800" windowHeight="11085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Start" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +90,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,11 +126,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -399,55 +415,55 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
